--- a/ghost-hunter/checklist.xlsx
+++ b/ghost-hunter/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/ghost-hunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5C980C-BFA2-6F46-9C80-F4B89C1FE9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E56A2-452A-8D41-8D7C-4FB0BB5DF353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6AA9269F-948D-DB47-88FF-78A622A1EF45}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>World Mystery Tour</t>
+  </si>
+  <si>
+    <t>黒き死の仮面―草壁健一郎の事件簿 ゴーストハンターRPGリプレイ</t>
+  </si>
+  <si>
+    <t>Black Death Mask-Kenichiro Kusakabe's Casebook Ghost Hunter RPG Replay</t>
+  </si>
+  <si>
+    <t>black-death-mask-replay.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>voice-calling-apollon-replay.jpg</t>
+  </si>
+  <si>
+    <t>アポルオンを呼ぶ声―ゴーストハンターRPGリプレイ</t>
+  </si>
+  <si>
+    <t>Voice Calling Apollon-Ghost Hunter RPG Replay</t>
+  </si>
+  <si>
+    <t>Aspect</t>
   </si>
 </sst>
 </file>
@@ -477,17 +501,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30072C2B-0790-4742-8047-1B90A8F0DBAC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
@@ -554,61 +578,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ghost-hunter/checklist.xlsx
+++ b/ghost-hunter/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/ghost-hunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E56A2-452A-8D41-8D7C-4FB0BB5DF353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F77A5FD-5372-454F-B87C-E450D8CE8B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6AA9269F-948D-DB47-88FF-78A622A1EF45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Aspect</t>
+  </si>
+  <si>
+    <t>ゴーストハンターRPG02リプレイ 黒き死の仮面―草壁健一郎の事件簿</t>
+  </si>
+  <si>
+    <t>Ghost Hunter RPG02 Replay Black Death Mask-Kenichiro Kusakabe's Casebook</t>
+  </si>
+  <si>
+    <t>Fujimi Shobo</t>
+  </si>
+  <si>
+    <t>black-death-mask-replay2.jpg</t>
   </si>
 </sst>
 </file>
@@ -501,16 +513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30072C2B-0790-4742-8047-1B90A8F0DBAC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="2" max="2" width="72.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
@@ -636,43 +648,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ghost-hunter/checklist.xlsx
+++ b/ghost-hunter/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/ghost-hunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F77A5FD-5372-454F-B87C-E450D8CE8B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C4C97A-3BC0-E54A-A042-245B9C4E68AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6AA9269F-948D-DB47-88FF-78A622A1EF45}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>black-death-mask-replay2.jpg</t>
+  </si>
+  <si>
+    <t>13の幽霊屋敷―怪奇探索行 ゴーストハンターRPGサプリメント</t>
+  </si>
+  <si>
+    <t>13 Haunted Houses-Mysterious Exploration Line Ghost Hunter RPG Supplement</t>
+  </si>
+  <si>
+    <t>13-haunted-houses.jpg</t>
   </si>
 </sst>
 </file>
@@ -513,17 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30072C2B-0790-4742-8047-1B90A8F0DBAC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.83203125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
@@ -630,22 +639,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -653,58 +662,78 @@
         <v>2002</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2002</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
